--- a/telegram-java-bot/src/main/resources/templates/redmine/report.xlsx
+++ b/telegram-java-bot/src/main/resources/templates/redmine/report.xlsx
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,57 +472,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -763,7 +762,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -779,15 +778,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="63">
       <c r="A2" s="6" t="s">
@@ -813,112 +812,112 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" s="25" customFormat="1" ht="15.75">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="15.75">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="18.75">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="15.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" s="24" customFormat="1" ht="15.75">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/telegram-java-bot/src/main/resources/templates/redmine/report.xlsx
+++ b/telegram-java-bot/src/main/resources/templates/redmine/report.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Готовое" sheetId="1" r:id="rId1"/>
+    <sheet name="шаблон" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
   <si>
     <t>№ п/п</t>
   </si>
@@ -78,6 +79,87 @@
   <si>
     <t>Задачи (план) - MOUNTH+1 YEAR+1г.</t>
   </si>
+  <si>
+    <t>Задачи (выполнены) — февраль 2024 г.</t>
+  </si>
+  <si>
+    <t>Карелия</t>
+  </si>
+  <si>
+    <t>Доработка</t>
+  </si>
+  <si>
+    <t>Отчеты системы</t>
+  </si>
+  <si>
+    <t>ЯНАО</t>
+  </si>
+  <si>
+    <t>Заявки СМП</t>
+  </si>
+  <si>
+    <t>Государственные учреждения</t>
+  </si>
+  <si>
+    <t>Мониторинг ФОТ</t>
+  </si>
+  <si>
+    <t>Саратов</t>
+  </si>
+  <si>
+    <t>Мониторинг информационного взаимодействия</t>
+  </si>
+  <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Разработка</t>
+  </si>
+  <si>
+    <t>Оренбург</t>
+  </si>
+  <si>
+    <t>Новосибирская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая </t>
+  </si>
+  <si>
+    <t>Администрирование</t>
+  </si>
+  <si>
+    <t>Общая</t>
+  </si>
+  <si>
+    <t>LogOnForm</t>
+  </si>
+  <si>
+    <t>RiaHomePage</t>
+  </si>
+  <si>
+    <t>Мониторинг информационного взаимодействия (Рыбочка Полина)</t>
+  </si>
+  <si>
+    <t>Заявки СМП (Рыбочка Полина)</t>
+  </si>
+  <si>
+    <t>Координационные и совещательные органы (Рыбочка Полина)</t>
+  </si>
+  <si>
+    <t>Задачи (план) - март 2024 г.</t>
+  </si>
+  <si>
+    <t>Сообщения</t>
+  </si>
+  <si>
+    <t>Импортозамещение</t>
+  </si>
+  <si>
+    <t>RepFormGenerator</t>
+  </si>
+  <si>
+    <t>Прочие задачи</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$руб.-419];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$руб.-419]"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +343,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -318,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -415,6 +504,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -449,7 +582,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +618,79 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,14 +720,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -762,7 +971,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -778,15 +987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="63">
       <c r="A2" s="6" t="s">
@@ -812,112 +1021,112 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="15.75">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="18.75">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" s="24" customFormat="1" ht="15.75">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -935,4 +1144,1222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="78.75">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="11"/>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="16"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="63">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="63">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="63">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="63">
+      <c r="A14" s="20"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="63">
+      <c r="A15" s="20"/>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="63">
+      <c r="A17" s="20"/>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="63">
+      <c r="A18" s="20"/>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="63">
+      <c r="A19" s="20"/>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="63">
+      <c r="A20" s="20"/>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="63">
+      <c r="A21" s="20"/>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="63">
+      <c r="A22" s="20"/>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5">
+      <c r="A23" s="20"/>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="63">
+      <c r="A24" s="20"/>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="47.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.5">
+      <c r="A26" s="20"/>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
+      <c r="A35" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" s="11"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" s="11"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
+      <c r="A43" s="11"/>
+      <c r="B43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
+      <c r="A46" s="11"/>
+      <c r="B46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="1:7" ht="94.5">
+      <c r="A50" s="5"/>
+      <c r="B50" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="5">
+        <v>182938</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="47.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="5">
+        <v>182964</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="94.5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="5">
+        <v>183556</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="78.75">
+      <c r="A53" s="5"/>
+      <c r="B53" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="5">
+        <v>184878</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="94.5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75">
+      <c r="A55" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75">
+      <c r="A56" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="31.5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="31.5">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="63">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="63">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="63">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="63">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75">
+      <c r="A66" s="5"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75">
+      <c r="A67" s="16"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75">
+      <c r="A68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="32"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75">
+      <c r="A69" s="16"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75">
+      <c r="A70" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75">
+      <c r="A72" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" ht="31.5">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="G73" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="31.5">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="31.5">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="G77" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="31.5">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75">
+      <c r="A80" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="33"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75">
+      <c r="A82" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75">
+      <c r="A84" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75">
+      <c r="A85" s="5"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75">
+      <c r="A87" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75">
+      <c r="A89" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75">
+      <c r="A90" s="5"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A89:F89"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>